--- a/biology/Zoologie/Ficimia_publia/Ficimia_publia.xlsx
+++ b/biology/Zoologie/Ficimia_publia/Ficimia_publia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficimia publia est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficimia publia est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Belize ;
 dans le sud du Guatemala ;
 au Honduras ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Ficimia publia publia Cope, 1866
 Ficimia publia taylori Smith, 1947</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[3] Cope indique que le spécimen en sa possession mesure environ 22 cm. Son dos est brun clair jaunâtre et présente une trentaine de taches transversales brunes. Sa nuque est marquée d'une grande tache et ses flancs tachetés de brun. Une tache brune souligne l’œil. Son ventre est uniformément blanchâtre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Cope indique que le spécimen en sa possession mesure environ 22 cm. Son dos est brun clair jaunâtre et présente une trentaine de taches transversales brunes. Sa nuque est marquée d'une grande tache et ses flancs tachetés de brun. Une tache brune souligne l’œil. Son ventre est uniformément blanchâtre.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocourt, 1883, in Duméril, Bocourt &amp; Mocquard, 1870-1909 : Études sur les reptiles, p. 1-1012, in Recherches Zoologiques pour servir a l'Histoire de la Faune de l'Amérique Centrale et du Mexique. Mission Scientifique au Mexique et dans l'Amérique, Imprimerie Impériale, Paris.
 Cope, 1866 : Fourth contribution to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 18, p. 123-132 (texte intégral).
